--- a/Design/DataTable/BuildingInfo.xlsx
+++ b/Design/DataTable/BuildingInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E164B8-C2F3-4D7B-B16E-4AFF04EC4C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A667BF-D0F4-4372-A936-B0736100D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1755" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="TowerTypeDesc" sheetId="7" r:id="rId3"/>
     <sheet name="!TowerData" sheetId="3" r:id="rId4"/>
     <sheet name="TowerDataDesc" sheetId="4" r:id="rId5"/>
-    <sheet name="NormalTowerDesc" sheetId="5" r:id="rId6"/>
-    <sheet name="!NormalTower" sheetId="2" r:id="rId7"/>
+    <sheet name="!NormalTower" sheetId="2" r:id="rId6"/>
+    <sheet name="NormalTowerDesc" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Tower_Data_Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;건물 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,18 @@
   </si>
   <si>
     <t>Const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 생산소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -806,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C86387-5A7B-4B46-A008-CC3D4C79EC2E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,39 +825,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>85</v>
@@ -866,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -886,13 +894,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -913,26 +921,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,23 +948,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -969,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABCBA2-7E9C-466E-8D99-C425574801C3}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,7 +1004,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1008,162 +1016,162 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -1177,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1263,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1349,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1435,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1521,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1607,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1693,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1779,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1865,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1951,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2048,15 +2056,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2064,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2072,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,114 +2093,114 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2200,15 +2208,15 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2216,47 +2224,47 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2266,126 +2274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F3C15-6BE3-4CA6-8705-2D1155A18FD7}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C78B2AC-44F4-49A5-808F-230C9D703B72}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="E5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C78B2AC-44F4-49A5-808F-230C9D703B72}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2403,7 +2296,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2418,19 +2311,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2439,60 +2332,245 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>101</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>101</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F3C15-6BE3-4CA6-8705-2D1155A18FD7}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/BuildingInfo.xlsx
+++ b/Design/DataTable/BuildingInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A667BF-D0F4-4372-A936-B0736100D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F17324-A73F-4EED-BD75-64820E57F8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,58 @@
   </si>
   <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResourceTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResourceAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseResourceAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseItemAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +533,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C86387-5A7B-4B46-A008-CC3D4C79EC2E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABCBA2-7E9C-466E-8D99-C425574801C3}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,14 +1054,14 @@
     <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="17.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="22.875" bestFit="1" customWidth="1"/>
     <col min="23" max="28" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1028,64 +1092,64 @@
         <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -1114,64 +1178,64 @@
         <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -2278,7 +2342,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2287,7 +2351,9 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
@@ -2313,32 +2379,32 @@
       <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+      <c r="K1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2360,32 +2426,32 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>84</v>
+      <c r="K2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2410,18 +2476,21 @@
       <c r="H3" t="s">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>101</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>100</v>
       </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2445,18 +2514,21 @@
       <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>101</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>100</v>
       </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2469,7 +2541,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
